--- a/SCH-STH/Impact assessments/Burkina Faso/bf_202301_sch_impact_assessment_2_enrolement .xlsx
+++ b/SCH-STH/Impact assessments/Burkina Faso/bf_202301_sch_impact_assessment_2_enrolement .xlsx
@@ -129,7 +129,7 @@
     <t>Numéro d'ordre par école</t>
   </si>
   <si>
-    <t>. &lt;30</t>
+    <t>. &lt; 30</t>
   </si>
   <si>
     <t>Doit être  inférieur à 30</t>
@@ -156,7 +156,7 @@
     <t>Age</t>
   </si>
   <si>
-    <t>.&gt;4 and .&lt;15</t>
+    <t>. &gt;= 4 and . &lt;= 15</t>
   </si>
   <si>
     <t>Doit être comprise entre 5 et 110</t>
@@ -186,7 +186,7 @@
     <t>p_Echantillonselle</t>
   </si>
   <si>
-    <t>Un échantillon de selles a-t-il été ourni par cet enfant?</t>
+    <t>Un échantillon de selles a-t-il été fourni par cet enfant?</t>
   </si>
   <si>
     <t>note</t>
@@ -339,10 +339,10 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>(BF - Jan 2023) impact schisto - 2. Formulaire Enrôlement V2.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bf_202301_sch_impact_assessment_2_enrolement </t>
+    <t>(BF - Jan 2023) impact schisto - 2. Formulaire Enrôlement V2</t>
+  </si>
+  <si>
+    <t>bf_202301_sch_impact_assessment_2_enrolement_v2</t>
   </si>
   <si>
     <t>French</t>
@@ -353,19 +353,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="25">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -418,8 +411,24 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -433,8 +442,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -449,37 +513,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -493,60 +548,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -579,25 +588,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,13 +684,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,139 +762,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -788,11 +791,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -801,7 +810,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -821,17 +830,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -842,30 +840,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -885,145 +859,180 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1032,45 +1041,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="47">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
     <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
@@ -1113,11 +1122,13 @@
     <cellStyle name="Title" xfId="39" builtinId="15"/>
     <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
     <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Heading 2" xfId="42" builtinId="17"/>
-    <cellStyle name="Comma" xfId="43" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="44" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="45" builtinId="40"/>
-    <cellStyle name="Percent" xfId="46" builtinId="5"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1422,7 +1433,7 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1" defaultRowHeight="14.25"/>
@@ -1836,7 +1847,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -2167,13 +2178,13 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="56" customWidth="1"/>
-    <col min="2" max="2" width="33.575" customWidth="1"/>
+    <col min="2" max="2" width="47.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
